--- a/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,2%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>-0.3920672370946288</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>3.707229361180511</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.8811054012612313</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.02508809259185774</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2580663215314799</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.06756437066997641</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 4,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 6,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 3,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-28,7; 39,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 48,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,76; 32,58</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-6.13432201924491</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-0.9442342921479661</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-3.332832880920058</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3158614856522076</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.04988253987225063</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2160800380831141</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.28804309767018</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>8.130010678417468</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.250592494238347</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.4547380150439436</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.692489922935784</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4859247930847179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-40,21%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-29,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-39,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; -0,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; -0,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; -2,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-58,66; -10,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-50,2; -1,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-51,59; -25,18</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>-1.870710038789442</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-1.030196195676902</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-3.392062747534124</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3927526242708789</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2155454392735249</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.364077917717388</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-3.431406861618549</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-2.487913187151626</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-5.058393756212736</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5998754543890109</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4565060583915638</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4832115563895049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>-0.4039945366129597</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.3465601842894578</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-1.58645737700936</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.08469636476727008</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.08811566891823766</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.1787058250388873</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-51,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-31,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-67,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; -0,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; -1,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-74,06; -6,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-67,89; 36,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-80,53; -45,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-2.474920253931371</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-0.5768453868240268</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-3.396789259753722</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.514875064641686</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2337686541507159</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.6791165724342335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-4.522135026033235</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-1.99094156664911</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-5.106879521181483</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.735802011656579</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6346737498603581</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.8170698409895987</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>-0.476408743481587</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.9567743821839096</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>-1.809084184751846</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.08540154915946491</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5901436083107966</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.4311858190775663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,21%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-35,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 0,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 0,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; -1,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-31,13; 8,13</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 14,9</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-44,56; -24,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>-0.9114461252580898</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.1410943984297898</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-2.782889298750808</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1518757853856026</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.0255238138528051</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.3207092022853773</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-2.295614359027872</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-1.054569972140046</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-4.110064154620003</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3246491963370929</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1790310705885731</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4308877589305187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.3433837338446172</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1.36463334604792</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-1.66291431703599</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.07507951950253085</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2731115190841708</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2057407027349324</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
